--- a/tables_plots/table_ratios.xlsx
+++ b/tables_plots/table_ratios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>Ratio</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>chr</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -474,6 +479,11 @@
       <c r="D2" t="n">
         <v>0.489768591956704</v>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -494,6 +504,11 @@
       <c r="D3" t="n">
         <v>1.11130710248749</v>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -514,6 +529,11 @@
       <c r="D4" t="n">
         <v>0.171292622418394</v>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -534,6 +554,11 @@
       <c r="D5" t="n">
         <v>1.54550439553915</v>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -554,6 +579,11 @@
       <c r="D6" t="n">
         <v>0.97089442056857</v>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -574,6 +604,11 @@
       <c r="D7" t="n">
         <v>64.99736691727639</v>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -594,6 +629,11 @@
       <c r="D8" t="n">
         <v>23.4661911208303</v>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -614,6 +654,11 @@
       <c r="D9" t="n">
         <v>0.325817321724364</v>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -634,6 +679,11 @@
       <c r="D10" t="n">
         <v>0.652724154229903</v>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -654,6 +704,11 @@
       <c r="D11" t="n">
         <v>2.27620878863199</v>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -674,6 +729,11 @@
       <c r="D12" t="n">
         <v>0.728696656242483</v>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -693,6 +753,11 @@
       </c>
       <c r="D13" t="n">
         <v>0.798594453995477</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
     </row>
   </sheetData>
